--- a/src/test/resources/stok.xlsx
+++ b/src/test/resources/stok.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10114"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC2281D4-CE06-0A43-BC0A-2A96D66CA794}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CDB8D0A4-35CC-6D4B-996A-1E2A0CE1555C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="34560" windowHeight="19800" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
   <si>
     <t>urun adi</t>
   </si>
@@ -57,6 +57,12 @@
   </si>
   <si>
     <t>cokoprens</t>
+  </si>
+  <si>
+    <t>elma</t>
+  </si>
+  <si>
+    <t>armut</t>
   </si>
 </sst>
 </file>
@@ -374,10 +380,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:B11"/>
+  <dimension ref="A1:B13"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -407,7 +413,7 @@
         <v>3</v>
       </c>
       <c r="B3">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
@@ -415,7 +421,7 @@
         <v>4</v>
       </c>
       <c r="B4">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
@@ -423,7 +429,7 @@
         <v>5</v>
       </c>
       <c r="B5">
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
@@ -431,7 +437,7 @@
         <v>6</v>
       </c>
       <c r="B6">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
@@ -472,6 +478,22 @@
       </c>
       <c r="B11">
         <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>12</v>
+      </c>
+      <c r="B12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>13</v>
+      </c>
+      <c r="B13">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
